--- a/data/trans_dic/P23_10_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 40,18</t>
+          <t>3,15; 24,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,76</t>
+          <t>1,94; 19,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 15,21</t>
+          <t>1,12; 16,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 13,7</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 16,42</t>
+          <t>5,62; 28,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,36</t>
+          <t>6,36; 27,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 26,59</t>
+          <t>1,41; 12,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,1</t>
+          <t>1,78; 20,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,09</t>
+          <t>5,55; 20,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 20,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 10,51</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 13,97</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 16,44</t>
+          <t>4,1; 13,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 15,59</t>
+          <t>3,86; 24,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,77</t>
+          <t>3,63; 13,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,32</t>
+          <t>1,6; 8,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,87</t>
+          <t>3,82; 11,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,01</t>
+          <t>1,92; 7,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 12,77</t>
+          <t>2,3; 9,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,67</t>
+          <t>2,91; 12,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,79</t>
+          <t>4,88; 10,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 14,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 9,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 8,72</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,19</t>
+          <t>3,02; 11,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,41</t>
+          <t>3,61; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,73</t>
+          <t>3,25; 12,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,56</t>
+          <t>1,97; 9,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,8</t>
+          <t>3,36; 10,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,82</t>
+          <t>0,51; 4,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,12</t>
+          <t>2,4; 8,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,34</t>
+          <t>1,57; 7,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,95</t>
+          <t>3,97; 9,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 7,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 9,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 7,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 11,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 17,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 10,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 6,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 10,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 6,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 7,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 9,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 10,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 10,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 7,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 7,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13491</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8302</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6127</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18688</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15620</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17214</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32179</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23921</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22427</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3815; 29412</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2004; 19798</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1248; 18184</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18990</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7638; 38313</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6956; 29620</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1670; 15162</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3457; 40669</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14255; 53791</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11945; 42737</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4396; 24203</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7511; 51954</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33172</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35413</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29065</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18695</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32359</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16082</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17963</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32337</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65531</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51495</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47029</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51032</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17517; 57130</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14436; 91329</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14309; 52549</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7913; 39876</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17425; 51188</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7179; 29591</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8601; 34795</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14279; 61211</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43147; 93744</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29256; 108874</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28325; 74609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29684; 85938</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21606</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20588</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18473</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16556</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26587</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5426</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16145</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14984</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48194</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26014</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34618</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31540</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10041; 39194</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10101; 37734</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8960; 34248</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6906; 34340</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14319; 44251</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1752; 14582</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7860; 28922</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6271; 29496</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30099; 73531</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14049; 44629</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21633; 54561</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18246; 55268</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>68270</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64303</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53665</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77634</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>37128</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39664</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>64535</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>145904</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>93329</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>104998</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45850; 100021</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39983; 129501</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35758; 83214</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23218; 65160</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55277; 110737</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22463; 57219</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24277; 59284</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39203; 103313</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>110471; 193090</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>72613; 162096</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>65861; 126159</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>72793; 150815</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
